--- a/INPUTS/inputs_8storyFrameOakland.xlsx
+++ b/INPUTS/inputs_8storyFrameOakland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacho\Documents\Github\ModelerWSMF\INPUTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A025CEC-2FFE-4902-A8D0-D01C714516FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABC062C-A3F9-4660-9E1D-E23A40304AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="2" r:id="rId1"/>
@@ -369,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -387,6 +387,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -735,11 +736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
@@ -753,7 +754,7 @@
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>8</v>
       </c>
@@ -815,13 +816,14 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <f>4*12</f>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -837,14 +839,14 @@
       <selection activeCell="B6" sqref="B6:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -855,7 +857,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -866,7 +868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -877,7 +879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -888,7 +890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -899,7 +901,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -910,7 +912,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -921,7 +923,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -932,7 +934,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -957,14 +959,14 @@
       <selection activeCell="B7" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>60</v>
       </c>
@@ -978,7 +980,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -995,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -1097,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -1128,13 +1130,13 @@
       <selection activeCell="B5" sqref="B5:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>64</v>
       </c>
@@ -1151,7 +1153,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1251,7 +1253,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1276,7 +1278,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -1326,7 +1328,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -1365,13 +1367,13 @@
       <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -1461,11 +1463,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1478,7 +1480,7 @@
     <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1507,7 +1509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -1567,7 +1569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1610,13 +1612,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -1651,7 +1653,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -1674,13 +1676,13 @@
       <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1688,7 +1690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +1699,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1774,7 +1776,7 @@
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -1782,7 +1784,7 @@
     <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1819,7 +1821,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1919,7 +1921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1974,14 +1976,14 @@
       <selection activeCell="B5" sqref="B4:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2058,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -2098,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -2172,14 +2174,14 @@
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2210,7 +2212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2227,7 +2229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2244,7 +2246,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -2343,14 +2345,14 @@
       <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -2367,7 +2369,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2387,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2427,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -2507,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -2541,14 +2543,14 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>42</v>
       </c>
@@ -2565,7 +2567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2585,7 +2587,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2605,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -2645,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -2665,7 +2667,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -2685,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -2739,7 +2741,7 @@
       <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
@@ -2747,7 +2749,7 @@
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2761,7 +2763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2789,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2803,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2817,7 +2819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>

--- a/INPUTS/inputs_8storyFrameOakland.xlsx
+++ b/INPUTS/inputs_8storyFrameOakland.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacho\Documents\Github\ModelerWSMF\INPUTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABC062C-A3F9-4660-9E1D-E23A40304AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973BFD82-C46F-435F-9E13-0CFFB953A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="113">
   <si>
     <t>storiesAboveGrade</t>
   </si>
@@ -155,15 +155,96 @@
     <t>story2</t>
   </si>
   <si>
+    <t>Axis1</t>
+  </si>
+  <si>
+    <t>Axis2</t>
+  </si>
+  <si>
+    <t>Floor2</t>
+  </si>
+  <si>
+    <t>Floor3</t>
+  </si>
+  <si>
+    <t>Floor4</t>
+  </si>
+  <si>
+    <t>Axis1</t>
+  </si>
+  <si>
+    <t>Axis2</t>
+  </si>
+  <si>
+    <t>storyName</t>
+  </si>
+  <si>
+    <t>story1</t>
+  </si>
+  <si>
+    <t>story2</t>
+  </si>
+  <si>
     <t>story3</t>
   </si>
   <si>
+    <t>nColEGF</t>
+  </si>
+  <si>
+    <t>colSizeEGF</t>
+  </si>
+  <si>
+    <t>nColMRForthogonal</t>
+  </si>
+  <si>
+    <t>floorName</t>
+  </si>
+  <si>
+    <t>Floor2</t>
+  </si>
+  <si>
+    <t>Floor3</t>
+  </si>
+  <si>
+    <t>Floor4</t>
+  </si>
+  <si>
+    <t>nBeamsEGF</t>
+  </si>
+  <si>
+    <t>beamSizeEGF</t>
+  </si>
+  <si>
+    <t>Floor2</t>
+  </si>
+  <si>
+    <t>Floor3</t>
+  </si>
+  <si>
+    <t>Floor4</t>
+  </si>
+  <si>
+    <t>Bay1</t>
+  </si>
+  <si>
+    <t>Floor2</t>
+  </si>
+  <si>
+    <t>Floor3</t>
+  </si>
+  <si>
+    <t>Floor4</t>
+  </si>
+  <si>
     <t>Axis1</t>
   </si>
   <si>
     <t>Axis2</t>
   </si>
   <si>
+    <t>floorName</t>
+  </si>
+  <si>
     <t>Floor2</t>
   </si>
   <si>
@@ -173,90 +254,6 @@
     <t>Floor4</t>
   </si>
   <si>
-    <t>Axis1</t>
-  </si>
-  <si>
-    <t>Axis2</t>
-  </si>
-  <si>
-    <t>storyName</t>
-  </si>
-  <si>
-    <t>story1</t>
-  </si>
-  <si>
-    <t>story2</t>
-  </si>
-  <si>
-    <t>story3</t>
-  </si>
-  <si>
-    <t>nColEGF</t>
-  </si>
-  <si>
-    <t>colSizeEGF</t>
-  </si>
-  <si>
-    <t>nColMRForthogonal</t>
-  </si>
-  <si>
-    <t>floorName</t>
-  </si>
-  <si>
-    <t>Floor2</t>
-  </si>
-  <si>
-    <t>Floor3</t>
-  </si>
-  <si>
-    <t>Floor4</t>
-  </si>
-  <si>
-    <t>nBeamsEGF</t>
-  </si>
-  <si>
-    <t>beamSizeEGF</t>
-  </si>
-  <si>
-    <t>Floor2</t>
-  </si>
-  <si>
-    <t>Floor3</t>
-  </si>
-  <si>
-    <t>Floor4</t>
-  </si>
-  <si>
-    <t>Bay1</t>
-  </si>
-  <si>
-    <t>Floor2</t>
-  </si>
-  <si>
-    <t>Floor3</t>
-  </si>
-  <si>
-    <t>Floor4</t>
-  </si>
-  <si>
-    <t>Axis1</t>
-  </si>
-  <si>
-    <t>Axis2</t>
-  </si>
-  <si>
-    <t>floorName</t>
-  </si>
-  <si>
-    <t>Floor2</t>
-  </si>
-  <si>
-    <t>Floor3</t>
-  </si>
-  <si>
-    <t>Floor4</t>
-  </si>
-  <si>
     <t>EGFweigth</t>
   </si>
   <si>
@@ -290,34 +287,58 @@
     <t>Bolted</t>
   </si>
   <si>
+    <t>Axis3</t>
+  </si>
+  <si>
+    <t>Bay2</t>
+  </si>
+  <si>
+    <t>Bay3</t>
+  </si>
+  <si>
+    <t>Bay4</t>
+  </si>
+  <si>
+    <t>W14X132</t>
+  </si>
+  <si>
+    <t>Axis4</t>
+  </si>
+  <si>
+    <t>Axis5</t>
+  </si>
+  <si>
+    <t>W24X62</t>
+  </si>
+  <si>
+    <t>Bay5</t>
+  </si>
+  <si>
+    <t>Axis6</t>
+  </si>
+  <si>
     <t>story4</t>
   </si>
   <si>
-    <t>Axis3</t>
-  </si>
-  <si>
-    <t>Bay2</t>
-  </si>
-  <si>
     <t>Floor5</t>
   </si>
   <si>
-    <t>Bay3</t>
-  </si>
-  <si>
-    <t>Bay4</t>
-  </si>
-  <si>
-    <t>W14X132</t>
-  </si>
-  <si>
-    <t>Axis4</t>
-  </si>
-  <si>
-    <t>Axis5</t>
-  </si>
-  <si>
-    <t>W24X62</t>
+    <t>Floor6</t>
+  </si>
+  <si>
+    <t>W14X257</t>
+  </si>
+  <si>
+    <t>W14X311</t>
+  </si>
+  <si>
+    <t>W14X211</t>
+  </si>
+  <si>
+    <t>W12X279</t>
+  </si>
+  <si>
+    <t>W12X120</t>
   </si>
   <si>
     <t>story5</t>
@@ -326,50 +347,50 @@
     <t>story6</t>
   </si>
   <si>
+    <t>Floor7</t>
+  </si>
+  <si>
+    <t>W21X132</t>
+  </si>
+  <si>
     <t>story7</t>
   </si>
   <si>
+    <t>Floor8</t>
+  </si>
+  <si>
+    <t>W14X283</t>
+  </si>
+  <si>
+    <t>W14X342</t>
+  </si>
+  <si>
+    <t>W14X233</t>
+  </si>
+  <si>
+    <t>W30X124</t>
+  </si>
+  <si>
     <t>story8</t>
   </si>
   <si>
-    <t>W14X211</t>
-  </si>
-  <si>
-    <t>Floor6</t>
-  </si>
-  <si>
-    <t>Floor7</t>
-  </si>
-  <si>
-    <t>Floor8</t>
-  </si>
-  <si>
     <t>Floor9</t>
   </si>
   <si>
-    <t>W27X114</t>
-  </si>
-  <si>
-    <t>W27X102</t>
-  </si>
-  <si>
-    <t>W27X94</t>
-  </si>
-  <si>
-    <t>W14X193</t>
-  </si>
-  <si>
-    <t>W14X159</t>
-  </si>
-  <si>
-    <t>W14X176</t>
+    <t>W14X145</t>
+  </si>
+  <si>
+    <t>W21X147</t>
+  </si>
+  <si>
+    <t>W21X73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -387,7 +408,6 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -438,9 +458,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +498,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -584,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -726,7 +746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,11 +756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
@@ -754,7 +774,7 @@
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -789,12 +809,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -836,113 +856,113 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C9"/>
+      <selection activeCell="A6" sqref="A6:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>52</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>109</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -953,71 +973,80 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E9"/>
+      <selection activeCell="F8" sqref="A7:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
@@ -1030,10 +1059,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1047,10 +1079,13 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1064,10 +1099,13 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1081,10 +1119,13 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1098,10 +1139,13 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>109</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1113,6 +1157,9 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
@@ -1124,233 +1171,220 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F9"/>
+      <selection activeCell="G8" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B2">
-        <f>(97+0.25*50)*bayLgth!B2/2*bayLgth!B2/2/12^2/1000</f>
-        <v>17.109375</v>
-      </c>
-      <c r="C2">
-        <f>(97+0.25*50)*bayLgth!B3*bayLgth!B3/2/12^2/1000</f>
-        <v>34.21875</v>
-      </c>
-      <c r="D2">
-        <f>C2</f>
-        <v>34.21875</v>
-      </c>
-      <c r="E2">
-        <f>D2</f>
-        <v>34.21875</v>
-      </c>
-      <c r="F2">
-        <f>B2</f>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B3">
-        <f>B2</f>
-        <v>17.109375</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:F3" si="0">C2</f>
-        <v>34.21875</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>34.21875</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>34.21875</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
       <c r="B4">
-        <f t="shared" ref="B4:B9" si="1">B3</f>
-        <v>17.109375</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="2">C3</f>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D9" si="3">D3</f>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="4">E3</f>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F9" si="5">F3</f>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>17.109375</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <f t="shared" si="4"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <f t="shared" si="5"/>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>17.109375</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>17.109375</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>17.109375</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>109</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>17.109375</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
-        <v>17.109375</v>
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1364,93 +1398,85 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>773.0859375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B2">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>762.7734375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B3">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
       <c r="B4">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>762.7734375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>762.7734375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>762.7734375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>762.7734375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B8">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>762.7734375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>109</v>
       </c>
       <c r="B9">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
+        <v>658.2421875</v>
       </c>
     </row>
   </sheetData>
@@ -1461,13 +1487,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1480,41 +1506,42 @@
     <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <f>16*0.25</f>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0.625</v>
@@ -1533,18 +1560,19 @@
       </c>
       <c r="H2">
         <f>F2*(B2-1)+2</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <f t="shared" ref="B3:B6" si="0">16*0.25</f>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0.625</v>
@@ -1563,18 +1591,19 @@
       </c>
       <c r="H3">
         <f>F3*(B3-1)+2</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0.625</v>
@@ -1593,10 +1622,72 @@
       </c>
       <c r="H4">
         <f>F4*(B4-1)+2</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.625</v>
+      </c>
+      <c r="D5">
+        <v>0.375</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1.5</v>
+      </c>
+      <c r="H5">
+        <f>F5*(B5-1)+2</f>
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.625</v>
+      </c>
+      <c r="D6">
+        <v>0.375</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6">
+        <f>F6*(B6-1)+2</f>
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1606,19 +1697,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E42" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1626,7 +1717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1635,30 +1726,39 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B6" si="0">25*12</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B3">
-        <f>25*12</f>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4">
-        <f>25*12</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5">
-        <f>25*12</f>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -1673,16 +1773,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+      <selection activeCell="A6" sqref="A6:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1690,76 +1790,76 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1">
-        <f>13*12</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1">
-        <f>B2</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <f>12*12</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1">
         <f>B3</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1">
-        <f>B4</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <f>12*12</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B9" si="0">B5</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <f>12*12</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <f>12*12</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>12*12</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>156</v>
+        <f>12*12</f>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1770,13 +1870,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -1784,7 +1884,7 @@
     <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1792,173 +1892,200 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>93</v>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1970,20 +2097,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:F9"/>
+      <selection activeCell="A6" sqref="A6:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -1991,16 +2118,19 @@
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2019,8 +2149,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2039,8 +2172,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2059,10 +2195,13 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2079,10 +2218,13 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2099,10 +2241,13 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2119,10 +2264,13 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2139,10 +2287,13 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>94</v>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2157,6 +2308,9 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
@@ -2168,167 +2322,194 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="6.21875" customWidth="1"/>
+    <col min="2" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>101</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>101</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F6" t="s">
         <v>101</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
         <v>101</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
       <c r="E7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2339,37 +2520,40 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+      <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2388,8 +2572,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2408,10 +2595,13 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2428,10 +2618,13 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2448,10 +2641,13 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2468,10 +2664,13 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2488,10 +2687,13 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2508,10 +2710,13 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>94</v>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2526,6 +2731,9 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
     </row>
@@ -2537,122 +2745,137 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B2">
-        <v>1.25</v>
-      </c>
-      <c r="C2">
-        <v>2.25</v>
-      </c>
-      <c r="D2">
-        <v>2.25</v>
-      </c>
-      <c r="E2">
-        <v>2.25</v>
-      </c>
-      <c r="F2">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1.75</v>
-      </c>
-      <c r="D4">
-        <v>1.75</v>
-      </c>
-      <c r="E4">
-        <v>1.75</v>
-      </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1.75</v>
@@ -2664,15 +2887,18 @@
         <v>1.75</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1.75</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1.75</v>
@@ -2684,47 +2910,56 @@
         <v>1.75</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1.75</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>109</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2738,10 +2973,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+      <selection activeCell="A7" sqref="A7:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
@@ -2749,127 +2984,127 @@
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>45</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>94</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <v>2</v>
